--- a/downloaded_files/STRS111_Lecture-35237.xlsx
+++ b/downloaded_files/STRS111_Lecture-35237.xlsx
@@ -1712,11 +1712,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20505]20505-45-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20321]20321-32-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20505]20505-45-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20321]20321-32-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20505]20505-45-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20321]20321-32-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/STRS111_Lecture-35237.xlsx
+++ b/downloaded_files/STRS111_Lecture-35237.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,15 +226,6 @@
   </x:si>
   <x:si>
     <x:t>Caren Sameh Shafik Beshara</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ليلى محمد محمود محمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layla Mohamed Mahmoud Mohamed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240151</x:t>
@@ -404,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1497,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6691388889</x:v>
+        <x:v>45907.6766508102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6766508102</x:v>
+        <x:v>45907.4167320602</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4167320602</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45907.6666286227</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6666286227</x:v>
+        <x:v>45907.6671581019</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1648,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6671581019</x:v>
+        <x:v>45907.6652211806</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1674,38 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6652211806</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/STRS111_Lecture-35237.xlsx
+++ b/downloaded_files/STRS111_Lecture-35237.xlsx
@@ -1671,11 +1671,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20321]20321-32-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20511]20511-45-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20321]20321-32-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20511]20511-45-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20321]20321-32-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Structural Analysis-1 and mechanics of materials (STRS111) Location : [20511]20511-45-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
